--- a/DJF/UAH_PHOTSAT_ASW_TestProcedures_definitivo.xlsx
+++ b/DJF/UAH_PHOTSAT_ASW_TestProcedures_definitivo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Documentos\GitHub\proyectofinal2.0\DJF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB56EF-B435-427D-8ABE-CF5B1121ACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED6B508-10A2-4FD6-850C-F569C2212C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT_UAH_PHOTSAT_SERV_129_0010" sheetId="1" r:id="rId1"/>
@@ -887,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2115,8 +2115,8 @@
   </sheetPr>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
